--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N2">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q2">
-        <v>2003.508721274121</v>
+        <v>9169.974523133402</v>
       </c>
       <c r="R2">
-        <v>2003.508721274121</v>
+        <v>82529.77070820061</v>
       </c>
       <c r="S2">
-        <v>0.0904306212663078</v>
+        <v>0.2057438737973087</v>
       </c>
       <c r="T2">
-        <v>0.0904306212663078</v>
+        <v>0.2057438737973087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N3">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q3">
-        <v>3008.576804975632</v>
+        <v>13419.25173776674</v>
       </c>
       <c r="R3">
-        <v>3008.576804975632</v>
+        <v>120773.2656399007</v>
       </c>
       <c r="S3">
-        <v>0.1357955005198729</v>
+        <v>0.3010835885120844</v>
       </c>
       <c r="T3">
-        <v>0.1357955005198729</v>
+        <v>0.3010835885120845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N4">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q4">
-        <v>830.208158850795</v>
+        <v>3802.192654416501</v>
       </c>
       <c r="R4">
-        <v>830.208158850795</v>
+        <v>34219.73388974851</v>
       </c>
       <c r="S4">
-        <v>0.03747237972465155</v>
+        <v>0.08530861712536322</v>
       </c>
       <c r="T4">
-        <v>0.03747237972465155</v>
+        <v>0.08530861712536322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N5">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q5">
-        <v>2981.2163883299</v>
+        <v>3231.206321347571</v>
       </c>
       <c r="R5">
-        <v>2981.2163883299</v>
+        <v>29080.85689212814</v>
       </c>
       <c r="S5">
-        <v>0.1345605573179261</v>
+        <v>0.07249757389350267</v>
       </c>
       <c r="T5">
-        <v>0.1345605573179261</v>
+        <v>0.07249757389350267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N6">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q6">
-        <v>4476.755394824852</v>
+        <v>4728.515977164342</v>
       </c>
       <c r="R6">
-        <v>4476.755394824852</v>
+        <v>42556.64379447908</v>
       </c>
       <c r="S6">
-        <v>0.2020633937414823</v>
+        <v>0.106092246167095</v>
       </c>
       <c r="T6">
-        <v>0.2020633937414823</v>
+        <v>0.106092246167095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N7">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q7">
-        <v>1235.347838824081</v>
+        <v>1339.771327492615</v>
       </c>
       <c r="R7">
-        <v>1235.347838824081</v>
+        <v>12057.94194743354</v>
       </c>
       <c r="S7">
-        <v>0.05575881520186685</v>
+        <v>0.03006003367026838</v>
       </c>
       <c r="T7">
-        <v>0.05575881520186685</v>
+        <v>0.03006003367026838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N8">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q8">
-        <v>2612.999980964312</v>
+        <v>3085.081252378441</v>
       </c>
       <c r="R8">
-        <v>2612.999980964312</v>
+        <v>27765.73127140597</v>
       </c>
       <c r="S8">
-        <v>0.1179406953103665</v>
+        <v>0.06921901104986952</v>
       </c>
       <c r="T8">
-        <v>0.1179406953103665</v>
+        <v>0.06921901104986952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N9">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q9">
-        <v>3923.821768607811</v>
+        <v>4514.677969136242</v>
       </c>
       <c r="R9">
-        <v>3923.821768607811</v>
+        <v>40632.10172222617</v>
       </c>
       <c r="S9">
-        <v>0.1771061121450035</v>
+        <v>0.1012944291147344</v>
       </c>
       <c r="T9">
-        <v>0.1771061121450035</v>
+        <v>0.1012944291147344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N10">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q10">
-        <v>1082.767387153657</v>
+        <v>1279.182755249703</v>
       </c>
       <c r="R10">
-        <v>1082.767387153657</v>
+        <v>11512.64479724733</v>
       </c>
       <c r="S10">
-        <v>0.0488719247725227</v>
+        <v>0.02870062666977377</v>
       </c>
       <c r="T10">
-        <v>0.0488719247725227</v>
+        <v>0.02870062666977377</v>
       </c>
     </row>
   </sheetData>
